--- a/document/15-1.xlsx
+++ b/document/15-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958E3684-925A-423A-8A52-6241A0B79731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C9980D-C25A-4DAB-8A21-0E01B0142557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="สายงานกิจการสาขา 1" sheetId="12" r:id="rId1"/>
@@ -2251,13 +2251,13 @@
   <dimension ref="A1:V9659"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1544" sqref="C1544"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
